--- a/WeatherControl/boltwood format.xlsx
+++ b/WeatherControl/boltwood format.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>C</t>
   </si>
@@ -175,6 +175,27 @@
   </si>
   <si>
     <t>alert, =0 when not alerting, =1 when alerting</t>
+  </si>
+  <si>
+    <t>CLOUDINDEX_CLEAR</t>
+  </si>
+  <si>
+    <t>CLOUDINDEX_CLOUDY</t>
+  </si>
+  <si>
+    <t>CLOUDINDEX_CLOUDY_BAD</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>cloudy</t>
+  </si>
+  <si>
+    <t>very cloudy</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
 </sst>
 </file>
@@ -199,12 +220,36 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -219,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -232,6 +277,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,10 +571,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:CZ24"/>
+  <dimension ref="A1:CZ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="CZ10" sqref="CZ10"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="CW31" sqref="CW31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1402,40 +1459,90 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="98:100" x14ac:dyDescent="0.35">
+    <row r="17" spans="90:101" x14ac:dyDescent="0.35">
       <c r="CT17" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="98:100" x14ac:dyDescent="0.35">
+    <row r="18" spans="90:101" x14ac:dyDescent="0.35">
       <c r="CT18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="98:100" x14ac:dyDescent="0.35">
+    <row r="19" spans="90:101" x14ac:dyDescent="0.35">
       <c r="CT19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="98:100" x14ac:dyDescent="0.35">
+    <row r="21" spans="90:101" x14ac:dyDescent="0.35">
       <c r="CV21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="98:100" x14ac:dyDescent="0.35">
+    <row r="22" spans="90:101" x14ac:dyDescent="0.35">
       <c r="CV22" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="98:100" x14ac:dyDescent="0.35">
+    <row r="23" spans="90:101" x14ac:dyDescent="0.35">
       <c r="CV23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="98:100" x14ac:dyDescent="0.35">
+    <row r="24" spans="90:101" x14ac:dyDescent="0.35">
       <c r="CV24" s="1" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="27" spans="90:101" x14ac:dyDescent="0.35">
+      <c r="CW27" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="90:101" x14ac:dyDescent="0.35">
+      <c r="CL28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="CV28" s="1">
+        <v>20</v>
+      </c>
+      <c r="CW28" s="5"/>
+    </row>
+    <row r="29" spans="90:101" x14ac:dyDescent="0.35">
+      <c r="CW29" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="90:101" x14ac:dyDescent="0.35">
+      <c r="CL30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="CV30" s="1">
+        <v>10</v>
+      </c>
+      <c r="CW30" s="7"/>
+    </row>
+    <row r="31" spans="90:101" x14ac:dyDescent="0.35">
+      <c r="CW31" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="90:101" x14ac:dyDescent="0.35">
+      <c r="CL32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="CV32" s="1">
+        <v>-10</v>
+      </c>
+      <c r="CW32" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="101:101" x14ac:dyDescent="0.35">
+      <c r="CW33" s="8"/>
+    </row>
+    <row r="34" spans="101:101" x14ac:dyDescent="0.35">
+      <c r="CW34" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
